--- a/09-14-25 to 09-20-25 Madison Schedule.xlsx
+++ b/09-14-25 to 09-20-25 Madison Schedule.xlsx
@@ -1199,7 +1199,7 @@
       <c r="G18" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Red Camry</t>
+Silver Van</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1274,7 +1274,11 @@
           <t>Eva</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Until 11:45</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
@@ -1429,7 +1433,7 @@
       <c r="G21" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Red Camry</t>
+Silver Van</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>

--- a/09-14-25 to 09-20-25 Madison Schedule.xlsx
+++ b/09-14-25 to 09-20-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y74"/>
+  <dimension ref="A1:Y85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4044,6 +4044,335 @@
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
     </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>8:00 AM START</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>YABBA DABBAS, MOLINE, IL</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>4416 AVENUE OF THE CITIES</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/QMV7Cg7RG2BzygPz5</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>*IL Meet is 6:00 am at IL office</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/09-14-25 to 09-20-25 Madison Schedule.xlsx
+++ b/09-14-25 to 09-20-25 Madison Schedule.xlsx
@@ -1799,13 +1799,12 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>w/ Nate for 1st site</t>
         </is>
       </c>
       <c r="X27" t="inlineStr"/>
@@ -1851,10 +1850,15 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -1902,14 +1906,10 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -1957,14 +1957,12 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima
-Supv Viking OP</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
@@ -2014,12 +2012,14 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>w/ Nate</t>
+          <t>Driver, 1/2
+Optima
+Supv Viking OP</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -2593,16 +2593,10 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Camry 3,
-Rx</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2664,7 +2658,8 @@
       <c r="W43" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3</t>
+Camry 3,
+Rx</t>
         </is>
       </c>
       <c r="X43" t="inlineStr"/>
@@ -4337,8 +4332,17 @@
           <t>1)</t>
         </is>
       </c>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry, Equip</t>
+        </is>
+      </c>
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
     </row>
@@ -4368,7 +4372,11 @@
           <t>2)</t>
         </is>
       </c>
-      <c r="V85" t="inlineStr"/>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr"/>

--- a/09-14-25 to 09-20-25 Madison Schedule.xlsx
+++ b/09-14-25 to 09-20-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y85"/>
+  <dimension ref="A1:Y86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1638,7 +1638,7 @@
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Nate and Qiana go to Viking OP to start, merge at Med Clinic OP</t>
+          <t>Nate and Angela go to Viking OP to start, merge at Med Clinic OP</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -4179,7 +4179,7 @@
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr">
         <is>
-          <t>YABBA DABBAS, MOLINE, IL</t>
+          <t>CONTACT IS HAMAD</t>
         </is>
       </c>
       <c r="W79" t="inlineStr"/>
@@ -4210,7 +4210,7 @@
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr">
         <is>
-          <t>4416 AVENUE OF THE CITIES</t>
+          <t>YABBA DABBAS, MOLINE, IL</t>
         </is>
       </c>
       <c r="W80" t="inlineStr"/>
@@ -4241,7 +4241,7 @@
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/QMV7Cg7RG2BzygPz5</t>
+          <t>4416 AVENUE OF THE CITIES</t>
         </is>
       </c>
       <c r="W81" t="inlineStr"/>
@@ -4272,7 +4272,7 @@
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr">
         <is>
-          <t>*IL Meet is 6:00 am at IL office</t>
+          <t>https://maps.app.goo.gl/QMV7Cg7RG2BzygPz5</t>
         </is>
       </c>
       <c r="W82" t="inlineStr"/>
@@ -4301,7 +4301,11 @@
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*IL Meet is 6:00 am at IL office </t>
+        </is>
+      </c>
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
@@ -4327,22 +4331,9 @@
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry, Equip</t>
-        </is>
-      </c>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
     </row>
@@ -4369,17 +4360,57 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="W85" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry, Equip</t>
+        </is>
+      </c>
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/09-14-25 to 09-20-25 Madison Schedule.xlsx
+++ b/09-14-25 to 09-20-25 Madison Schedule.xlsx
@@ -3219,7 +3219,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3333,15 +3333,10 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
@@ -3374,9 +3369,22 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>

--- a/09-14-25 to 09-20-25 Madison Schedule.xlsx
+++ b/09-14-25 to 09-20-25 Madison Schedule.xlsx
@@ -2454,7 +2454,11 @@
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Lori Drop off Corolla at Meinke tonight Oil change tomorrow</t>
+        </is>
+      </c>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>

--- a/09-14-25 to 09-20-25 Madison Schedule.xlsx
+++ b/09-14-25 to 09-20-25 Madison Schedule.xlsx
@@ -2454,12 +2454,12 @@
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
         <is>
           <t>Lori Drop off Corolla at Meinke tonight Oil change tomorrow</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2515,21 +2515,9 @@
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>Driver 1/2, Equip</t>
-        </is>
-      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
@@ -2576,17 +2564,17 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Driver 1/2  </t>
+          <t>Driver 1/2, Equip</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
@@ -2635,17 +2623,17 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t xml:space="preserve">Driver 1/2  </t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -2705,12 +2693,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2770,9 +2758,21 @@
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
@@ -2881,11 +2881,7 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
@@ -2930,7 +2926,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -2978,7 +2974,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>KELLEY #45, SOUTH MAIN MOBIL, ROCKFORD</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3021,7 +3017,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>550 SOUTH ROCK DR</t>
+          <t>KELLEY #45, SOUTH MAIN MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3077,7 +3073,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/t6CvF5RGpa22</t>
+          <t>550 SOUTH ROCK DR</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3133,7 +3129,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t>https://goo.gl/maps/t6CvF5RGpa22</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3182,7 +3178,11 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
@@ -3228,21 +3228,9 @@
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
@@ -3289,15 +3277,19 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
@@ -3337,19 +3329,24 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3373,34 +3370,25 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Until 10:45</t>
+        </is>
+      </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
@@ -3427,12 +3415,12 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3466,12 +3454,12 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3505,12 +3493,12 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3544,12 +3532,12 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3581,8 +3569,16 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>

--- a/09-14-25 to 09-20-25 Madison Schedule.xlsx
+++ b/09-14-25 to 09-20-25 Madison Schedule.xlsx
@@ -1320,7 +1320,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">

--- a/09-14-25 to 09-20-25 Madison Schedule.xlsx
+++ b/09-14-25 to 09-20-25 Madison Schedule.xlsx
@@ -656,7 +656,11 @@
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Festival Foods is going through the process of selling to new ownership.  Starting Thursday (9/18) there may be extra store personnel at the Festivals for the remainder of this round of inventories.  All processes are expected to remain the same, you may encounter a few extra recounts however due to the sale.  Thank you for all your hard work and for keeping our customers happy!</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">

--- a/09-14-25 to 09-20-25 Madison Schedule.xlsx
+++ b/09-14-25 to 09-20-25 Madison Schedule.xlsx
@@ -2284,7 +2284,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>1115 INDUSTRIAL DR  SUITE A</t>
+          <t>1115 INDUSTRIAL DR, SUITE A</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>

--- a/09-14-25 to 09-20-25 Madison Schedule.xlsx
+++ b/09-14-25 to 09-20-25 Madison Schedule.xlsx
@@ -3176,7 +3176,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>

--- a/09-14-25 to 09-20-25 Madison Schedule.xlsx
+++ b/09-14-25 to 09-20-25 Madison Schedule.xlsx
@@ -2461,7 +2461,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Lori Drop off Corolla at Meinke tonight Oil change tomorrow</t>
+          <t>Lori Drop off Corolla at Meineke tonight Oil change tomorrow</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>

--- a/09-14-25 to 09-20-25 Madison Schedule.xlsx
+++ b/09-14-25 to 09-20-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y86"/>
+  <dimension ref="A1:Y88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4072,9 +4072,21 @@
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
     </row>
@@ -4127,11 +4139,7 @@
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr">
-        <is>
-          <t>8:00 AM START</t>
-        </is>
-      </c>
+      <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
@@ -4160,7 +4168,7 @@
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>8:00 AM START</t>
         </is>
       </c>
       <c r="W78" t="inlineStr"/>
@@ -4191,7 +4199,7 @@
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr">
         <is>
-          <t>CONTACT IS HAMAD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W79" t="inlineStr"/>
@@ -4222,7 +4230,7 @@
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr">
         <is>
-          <t>YABBA DABBAS, MOLINE, IL</t>
+          <t>CONTACT IS HAMAD</t>
         </is>
       </c>
       <c r="W80" t="inlineStr"/>
@@ -4253,7 +4261,7 @@
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr">
         <is>
-          <t>4416 AVENUE OF THE CITIES</t>
+          <t>HE IS BUYING THIS STORE TODAY (HAMAD)</t>
         </is>
       </c>
       <c r="W81" t="inlineStr"/>
@@ -4284,7 +4292,7 @@
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/QMV7Cg7RG2BzygPz5</t>
+          <t>YABBA DABBAS, MOLINE, IL</t>
         </is>
       </c>
       <c r="W82" t="inlineStr"/>
@@ -4315,7 +4323,7 @@
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr">
         <is>
-          <t xml:space="preserve">*IL Meet is 6:00 am at IL office </t>
+          <t>4416 AVENUE OF THE CITIES</t>
         </is>
       </c>
       <c r="W83" t="inlineStr"/>
@@ -4344,7 +4352,11 @@
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/QMV7Cg7RG2BzygPz5</t>
+        </is>
+      </c>
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
@@ -4370,22 +4382,13 @@
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry, Equip</t>
-        </is>
-      </c>
+          <t xml:space="preserve">*IL Meet is 6:00 am at IL office </t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr"/>
     </row>
@@ -4410,19 +4413,86 @@
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V86" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
       <c r="Y86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry, Equip</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/09-14-25 to 09-20-25 Madison Schedule.xlsx
+++ b/09-14-25 to 09-20-25 Madison Schedule.xlsx
@@ -2653,7 +2653,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>Driver, 1/2
+          <t>Driver,
 Camry 3,
 Rx</t>
         </is>

--- a/09-14-25 to 09-20-25 Madison Schedule.xlsx
+++ b/09-14-25 to 09-20-25 Madison Schedule.xlsx
@@ -618,7 +618,11 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Nate dropping off Camry 3 at Butittas</t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
